--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_21_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_21_ChartFormatting.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormattedCharts" sheetId="1" r:id="Ref54acb18bd04bbc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormattedCharts" sheetId="1" r:id="Ra7944f1ff04646f7"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -95,6 +96,30 @@
           <c:val>
             <c:numRef>
               <c:f>'FormattedCharts'!$B$2:$G$2</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2024</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'FormattedCharts'!$B$2:$G$2</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2025</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'FormattedCharts'!$B$3:$G$3</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -178,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e64c3f3f32d4bff"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R79d7b76ec23848b9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -260,6 +285,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5eae4ec06bc340c6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73911e9c067d4b8a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_21_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Showcase/Output/Showcase_21_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormattedCharts" sheetId="1" r:id="Ra7944f1ff04646f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormattedCharts" sheetId="1" r:id="Rce07959831ed40b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -88,6 +88,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'FormattedCharts'!$B$1:$G$1</c:f>
@@ -203,7 +206,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R79d7b76ec23848b9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2dc9378a583b4b4e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -285,6 +288,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73911e9c067d4b8a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5702af6649a14010"/>
 </x:worksheet>
 </file>